--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/20/seed5/result_data_RandomForest.xlsx
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.461600000000001</v>
+        <v>5.229199999999999</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.758500000000001</v>
+        <v>5.7377</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -686,7 +686,7 @@
         <v>-21.67</v>
       </c>
       <c r="B15" t="n">
-        <v>5.056600000000007</v>
+        <v>5.280800000000002</v>
       </c>
       <c r="C15" t="n">
         <v>-10.67</v>
